--- a/planning_info/Campaign_S_traverse_2021.xlsx
+++ b/planning_info/Campaign_S_traverse_2021.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="39">
   <si>
     <t>day</t>
   </si>
@@ -52,6 +52,12 @@
     <t>destination lon</t>
   </si>
   <si>
+    <t>start location name</t>
+  </si>
+  <si>
+    <t>landing location name</t>
+  </si>
+  <si>
     <t>8.5</t>
   </si>
   <si>
@@ -92,6 +98,39 @@
   </si>
   <si>
     <t>NSE</t>
+  </si>
+  <si>
+    <t>Akureyri</t>
+  </si>
+  <si>
+    <t>Kulusuk</t>
+  </si>
+  <si>
+    <t>Nuuk</t>
+  </si>
+  <si>
+    <t>DYE-II</t>
+  </si>
+  <si>
+    <t>Kangerlussuaq</t>
+  </si>
+  <si>
+    <t>Saddle</t>
+  </si>
+  <si>
+    <t>Crawford Point</t>
+  </si>
+  <si>
+    <t>Ilulissat</t>
+  </si>
+  <si>
+    <t>South Dome</t>
+  </si>
+  <si>
+    <t>Narsarsuaq</t>
+  </si>
+  <si>
+    <t>NASA-SE</t>
   </si>
 </sst>
 </file>
@@ -449,13 +488,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,19 +531,25 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>473</v>
@@ -530,19 +575,25 @@
       <c r="L2">
         <v>-37.1349</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>380</v>
@@ -568,27 +619,33 @@
       <c r="L3">
         <v>-51.6742</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>193</v>
@@ -614,19 +671,25 @@
       <c r="L5">
         <v>-46.2789</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>110</v>
@@ -652,19 +715,25 @@
       <c r="L6">
         <v>-50.711</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>161</v>
@@ -690,19 +759,25 @@
       <c r="L7">
         <v>-44.5002</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
         <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
       </c>
       <c r="E8">
         <v>52</v>
@@ -728,19 +803,25 @@
       <c r="L8">
         <v>-46.2789</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>110</v>
@@ -766,19 +847,25 @@
       <c r="L9">
         <v>-50.711</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>191</v>
@@ -804,19 +891,25 @@
       <c r="L10">
         <v>-46.9867</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>94</v>
@@ -842,27 +935,33 @@
       <c r="L11">
         <v>-51.0664</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11" t="s">
+        <v>34</v>
+      </c>
+      <c r="N11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E13">
         <v>199</v>
@@ -888,19 +987,25 @@
       <c r="L13">
         <v>-46.2789</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13" t="s">
+        <v>35</v>
+      </c>
+      <c r="N13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E14">
         <v>204</v>
@@ -926,19 +1031,25 @@
       <c r="L14">
         <v>-44.8172</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14" t="s">
+        <v>31</v>
+      </c>
+      <c r="N14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15">
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E15">
         <v>121</v>
@@ -964,19 +1075,25 @@
       <c r="L15">
         <v>-45.4178</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15" t="s">
+        <v>36</v>
+      </c>
+      <c r="N15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16">
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E16">
         <v>251</v>
@@ -1002,19 +1119,25 @@
       <c r="L16">
         <v>-51.6742</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16" t="s">
+        <v>37</v>
+      </c>
+      <c r="N16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17">
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E17">
         <v>268</v>
@@ -1040,19 +1163,25 @@
       <c r="L17">
         <v>-42.5002</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17" t="s">
+        <v>30</v>
+      </c>
+      <c r="N17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18">
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E18">
         <v>142</v>
@@ -1077,6 +1206,12 @@
       </c>
       <c r="L18">
         <v>-37.1349</v>
+      </c>
+      <c r="M18" t="s">
+        <v>38</v>
+      </c>
+      <c r="N18" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
